--- a/mastml/data/diffusion_data_nofeatures.xlsx
+++ b/mastml/data/diffusion_data_nofeatures.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanjacobs/PycharmProjects/MAST-ML_2020-12-21/mastml/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0D416DE-E424-ED4B-A5EA-FF9164603CBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E7E0E7-EC53-5A49-9358-3B915BFF353E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{130AAA4F-F898-C84B-9106-9C2CC1631493}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="62">
   <si>
     <t>Material compositions 1</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>Th</t>
+  </si>
+  <si>
+    <t>Material compositions joined</t>
   </si>
 </sst>
 </file>
@@ -571,18 +574,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C652117-B063-B048-A4F5-750D38D11C58}">
-  <dimension ref="A1:C409"/>
+  <dimension ref="A1:D409"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="1"/>
+    <col min="1" max="4" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -590,4494 +593,6129 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="1" t="str">
+        <f>CONCATENATE(A2,B2)</f>
+        <v>AgAg</v>
+      </c>
+      <c r="D2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="1" t="str">
+        <f t="shared" ref="C3:C66" si="0">CONCATENATE(A3,B3)</f>
+        <v>AgCo</v>
+      </c>
+      <c r="D3" s="1">
         <v>-9.0141676000000004E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AgCr</v>
+      </c>
+      <c r="D4" s="1">
         <v>0.25913854400000003</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AgCu</v>
+      </c>
+      <c r="D5" s="1">
         <v>-2.2200404999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AgFe</v>
+      </c>
+      <c r="D6" s="1">
         <v>0.31767234100000002</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AgMn</v>
+      </c>
+      <c r="D7" s="1">
         <v>0.202185741</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AgNi</v>
+      </c>
+      <c r="D8" s="1">
         <v>0.25057147800000001</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AgSc</v>
+      </c>
+      <c r="D9" s="1">
         <v>-1.431337E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AgTi</v>
+      </c>
+      <c r="D10" s="1">
         <v>0.164968058</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AgV</v>
+      </c>
+      <c r="D11" s="1">
         <v>0.24816322800000001</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AgZn</v>
+      </c>
+      <c r="D12" s="1">
         <v>-0.14697623300000001</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AlAl</v>
+      </c>
+      <c r="D13" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AlAg</v>
+      </c>
+      <c r="D14" s="1">
         <v>-0.12503</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AlAs</v>
+      </c>
+      <c r="D15" s="1">
         <v>-0.14243</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AlAu</v>
+      </c>
+      <c r="D16" s="1">
         <v>-0.22470999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AlBi</v>
+      </c>
+      <c r="D17" s="1">
         <v>-0.35403000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AlCa</v>
+      </c>
+      <c r="D18" s="1">
         <v>-0.19264999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AlCd</v>
+      </c>
+      <c r="D19" s="1">
         <v>-0.10511</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AlCe</v>
+      </c>
+      <c r="D20" s="1">
         <v>-0.33259</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AlCo</v>
+      </c>
+      <c r="D21" s="1">
         <v>0.74429999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AlCr</v>
+      </c>
+      <c r="D22" s="1">
         <v>0.91010000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AlCu</v>
+      </c>
+      <c r="D23" s="1">
         <v>-7.0019999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AlEr</v>
+      </c>
+      <c r="D24" s="1">
         <v>-0.10337</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AlFe</v>
+      </c>
+      <c r="D25" s="1">
         <v>0.87770000000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AlGa</v>
+      </c>
+      <c r="D26" s="1">
         <v>-7.7609999999999998E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AlGe</v>
+      </c>
+      <c r="D27" s="1">
         <v>-0.11104</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AlHf</v>
+      </c>
+      <c r="D28" s="1">
         <v>0.79708999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AlHg</v>
+      </c>
+      <c r="D29" s="1">
         <v>-0.18024000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AlIn</v>
+      </c>
+      <c r="D30" s="1">
         <v>-0.16474</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AlIr</v>
+      </c>
+      <c r="D31" s="1">
         <v>0.95909999999999995</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AlLa</v>
+      </c>
+      <c r="D32" s="1">
         <v>-0.48848999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AlMg</v>
+      </c>
+      <c r="D33" s="1">
         <v>-1.9390000000000001E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AlMn</v>
+      </c>
+      <c r="D34" s="1">
         <v>0.6552</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AlMo</v>
+      </c>
+      <c r="D35" s="1">
         <v>1.7601</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AlNa</v>
+      </c>
+      <c r="D36" s="1">
         <v>-6.923E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AlNb</v>
+      </c>
+      <c r="D37" s="1">
         <v>1.4009</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AlNd</v>
+      </c>
+      <c r="D38" s="1">
         <v>-0.33529999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AlNi</v>
+      </c>
+      <c r="D39" s="1">
         <v>0.33349000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AlOs</v>
+      </c>
+      <c r="D40" s="1">
         <v>1.54</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AlP</v>
+      </c>
+      <c r="D41" s="1">
         <v>-0.22713</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AlPb</v>
+      </c>
+      <c r="D42" s="1">
         <v>-0.32056000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AlPd</v>
+      </c>
+      <c r="D43" s="1">
         <v>0.25651000000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AlPt</v>
+      </c>
+      <c r="D44" s="1">
         <v>0.33778999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AlRe</v>
+      </c>
+      <c r="D45" s="1">
         <v>1.9229000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AlRh</v>
+      </c>
+      <c r="D46" s="1">
         <v>0.8024</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AlRu</v>
+      </c>
+      <c r="D47" s="1">
         <v>1.3302</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AlS</v>
+      </c>
+      <c r="D48" s="1">
         <v>-0.15472</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AlSb</v>
+      </c>
+      <c r="D49" s="1">
         <v>-0.24038000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AlSc</v>
+      </c>
+      <c r="D50" s="1">
         <v>0.30159000000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AlSe</v>
+      </c>
+      <c r="D51" s="1">
         <v>-0.44258999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AlSi</v>
+      </c>
+      <c r="D52" s="1">
         <v>-0.15373000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AlSn</v>
+      </c>
+      <c r="D53" s="1">
         <v>-0.19550000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AlTa</v>
+      </c>
+      <c r="D54" s="1">
         <v>1.5159</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AlTc</v>
+      </c>
+      <c r="D55" s="1">
         <v>1.7082999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AlTe</v>
+      </c>
+      <c r="D56" s="1">
         <v>-0.36131999999999997</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AlTi</v>
+      </c>
+      <c r="D57" s="1">
         <v>0.94128999999999996</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AlTl</v>
+      </c>
+      <c r="D58" s="1">
         <v>-0.27676000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AlV</v>
+      </c>
+      <c r="D59" s="1">
         <v>1.3411999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AlW</v>
+      </c>
+      <c r="D60" s="1">
         <v>1.9361999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AlY</v>
+      </c>
+      <c r="D61" s="1">
         <v>-0.14998</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AlZn</v>
+      </c>
+      <c r="D62" s="1">
         <v>-8.4909999999999999E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AlZr</v>
+      </c>
+      <c r="D63" s="1">
         <v>0.65612999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AuAu</v>
+      </c>
+      <c r="D64" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AuAg</v>
+      </c>
+      <c r="D65" s="1">
         <v>3.4799999999999998E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AuCd</v>
+      </c>
+      <c r="D66" s="1">
         <v>-5.5199999999999999E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" s="1" t="str">
+        <f t="shared" ref="C67:C130" si="1">CONCATENATE(A67,B67)</f>
+        <v>AuMo</v>
+      </c>
+      <c r="D67" s="1">
         <v>1.0278</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>AuNb</v>
+      </c>
+      <c r="D68" s="1">
         <v>0.97799999999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>AuPd</v>
+      </c>
+      <c r="D69" s="1">
         <v>0.4194</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>AuRh</v>
+      </c>
+      <c r="D70" s="1">
         <v>0.75760000000000005</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>AuRu</v>
+      </c>
+      <c r="D71" s="1">
         <v>0.93259999999999998</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>AuTc</v>
+      </c>
+      <c r="D72" s="1">
         <v>1.0052000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>AuY</v>
+      </c>
+      <c r="D73" s="1">
         <v>7.0400000000000004E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>AuZr</v>
+      </c>
+      <c r="D74" s="1">
         <v>0.69710000000000005</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CaCa</v>
+      </c>
+      <c r="D75" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CaAg</v>
+      </c>
+      <c r="D76" s="1">
         <v>-0.11076</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CaCd</v>
+      </c>
+      <c r="D77" s="1">
         <v>-3.1949999999999999E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CaNb</v>
+      </c>
+      <c r="D78" s="1">
         <v>0.84799999999999998</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C79" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CaY</v>
+      </c>
+      <c r="D79" s="1">
         <v>0.29815000000000003</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CaZr</v>
+      </c>
+      <c r="D80" s="1">
         <v>0.63619000000000003</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CuCu</v>
+      </c>
+      <c r="D81" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CuAg</v>
+      </c>
+      <c r="D82" s="1">
         <v>-0.1328</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CuAl</v>
+      </c>
+      <c r="D83" s="1">
         <v>-5.3589999999999999E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CuAu</v>
+      </c>
+      <c r="D84" s="1">
         <v>-0.10813</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C85" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CuBi</v>
+      </c>
+      <c r="D85" s="1">
         <v>-0.44205</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C86" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CuCd</v>
+      </c>
+      <c r="D86" s="1">
         <v>-0.18004000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C87" s="1">
+      <c r="C87" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CuCo</v>
+      </c>
+      <c r="D87" s="1">
         <v>0.39165</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C88" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CuCr</v>
+      </c>
+      <c r="D88" s="1">
         <v>7.1290000000000006E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CuFe</v>
+      </c>
+      <c r="D89" s="1">
         <v>0.39711999999999997</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C90" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CuGa</v>
+      </c>
+      <c r="D90" s="1">
         <v>-0.10589999999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C91" s="1">
+      <c r="C91" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CuGe</v>
+      </c>
+      <c r="D91" s="1">
         <v>-0.17374000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C92" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CuHf</v>
+      </c>
+      <c r="D92" s="1">
         <v>-0.15578</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C93" s="1">
+      <c r="C93" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CuHg</v>
+      </c>
+      <c r="D93" s="1">
         <v>-0.22938</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C94" s="1">
+      <c r="C94" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CuIn</v>
+      </c>
+      <c r="D94" s="1">
         <v>-0.20488999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C95" s="1">
+      <c r="C95" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CuIr</v>
+      </c>
+      <c r="D95" s="1">
         <v>0.59565000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C96" s="1">
+      <c r="C96" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CuMg</v>
+      </c>
+      <c r="D96" s="1">
         <v>-9.1910000000000006E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C97" s="1">
+      <c r="C97" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CuMn</v>
+      </c>
+      <c r="D97" s="1">
         <v>-4.548E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C98" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CuMo</v>
+      </c>
+      <c r="D98" s="1">
         <v>0.15031</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C99" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CuNb</v>
+      </c>
+      <c r="D99" s="1">
         <v>-8.5540000000000005E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C100" s="1">
+      <c r="C100" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CuNi</v>
+      </c>
+      <c r="D100" s="1">
         <v>0.27892</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C101" s="1">
+      <c r="C101" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CuOs</v>
+      </c>
+      <c r="D101" s="1">
         <v>0.64888000000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C102" s="1">
+      <c r="C102" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CuPb</v>
+      </c>
+      <c r="D102" s="1">
         <v>-0.38857000000000003</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C103" s="1">
+      <c r="C103" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CuPd</v>
+      </c>
+      <c r="D103" s="1">
         <v>0.13164999999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C104" s="1">
+      <c r="C104" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CuPt</v>
+      </c>
+      <c r="D104" s="1">
         <v>0.34588000000000002</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C105" s="1">
+      <c r="C105" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CuRe</v>
+      </c>
+      <c r="D105" s="1">
         <v>0.55486000000000002</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C106" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CuRh</v>
+      </c>
+      <c r="D106" s="1">
         <v>0.38924999999999998</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C107" s="1">
+      <c r="C107" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CuRu</v>
+      </c>
+      <c r="D107" s="1">
         <v>0.42780000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C108" s="1">
+      <c r="C108" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CuS</v>
+      </c>
+      <c r="D108" s="1">
         <v>-0.32153999999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C109" s="1">
+      <c r="C109" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CuSb</v>
+      </c>
+      <c r="D109" s="1">
         <v>-0.29198000000000002</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C110" s="1">
+      <c r="C110" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CuSc</v>
+      </c>
+      <c r="D110" s="1">
         <v>-0.18267</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C111" s="1">
+      <c r="C111" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CuSi</v>
+      </c>
+      <c r="D111" s="1">
         <v>-0.16597999999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C112" s="1">
+      <c r="C112" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CuSn</v>
+      </c>
+      <c r="D112" s="1">
         <v>-0.23379</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C113" s="1">
+      <c r="C113" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CuTa</v>
+      </c>
+      <c r="D113" s="1">
         <v>8.1399999999999997E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C114" s="1">
+      <c r="C114" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CuTc</v>
+      </c>
+      <c r="D114" s="1">
         <v>0.34616999999999998</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C115" s="1">
+      <c r="C115" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CuTi</v>
+      </c>
+      <c r="D115" s="1">
         <v>-4.922E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C116" s="1">
+      <c r="C116" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CuTl</v>
+      </c>
+      <c r="D116" s="1">
         <v>-0.31433</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C117" s="1">
+      <c r="C117" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CuV</v>
+      </c>
+      <c r="D117" s="1">
         <v>7.5670000000000001E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C118" s="1">
+      <c r="C118" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CuW</v>
+      </c>
+      <c r="D118" s="1">
         <v>0.35754000000000002</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C119" s="1">
+      <c r="C119" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CuZn</v>
+      </c>
+      <c r="D119" s="1">
         <v>-8.1589999999999996E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C120" s="1">
+      <c r="C120" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CuZr</v>
+      </c>
+      <c r="D120" s="1">
         <v>-0.21887000000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C121" s="1">
+      <c r="C121" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>FeFe</v>
+      </c>
+      <c r="D121" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C122" s="1">
+      <c r="C122" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>FeAl</v>
+      </c>
+      <c r="D122" s="1">
         <v>-0.14476</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C123" s="1">
+      <c r="C123" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>FeAs</v>
+      </c>
+      <c r="D123" s="1">
         <v>-0.21379000000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C124" s="1">
+      <c r="C124" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>FeBi</v>
+      </c>
+      <c r="D124" s="1">
         <v>-0.36814000000000002</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C125" s="1">
+      <c r="C125" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>FeCo</v>
+      </c>
+      <c r="D125" s="1">
         <v>4.3549999999999998E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C126" s="1">
+      <c r="C126" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>FeCr</v>
+      </c>
+      <c r="D126" s="1">
         <v>-9.3340000000000006E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C127" s="1">
+      <c r="C127" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>FeGa</v>
+      </c>
+      <c r="D127" s="1">
         <v>-0.15887000000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C128" s="1">
+      <c r="C128" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>FeGe</v>
+      </c>
+      <c r="D128" s="1">
         <v>-0.17352999999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C129" s="1">
+      <c r="C129" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>FeIr</v>
+      </c>
+      <c r="D129" s="1">
         <v>0.10353999999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C130" s="1">
+      <c r="C130" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>FeMo</v>
+      </c>
+      <c r="D130" s="1">
         <v>-0.13694999999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C131" s="1">
+      <c r="C131" s="1" t="str">
+        <f t="shared" ref="C131:C194" si="2">CONCATENATE(A131,B131)</f>
+        <v>FeNb</v>
+      </c>
+      <c r="D131" s="1">
         <v>-0.18049999999999999</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C132" s="1">
+      <c r="C132" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>FeNi</v>
+      </c>
+      <c r="D132" s="1">
         <v>-7.9600000000000004E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C133" s="1">
+      <c r="C133" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>FeP</v>
+      </c>
+      <c r="D133" s="1">
         <v>-0.31503999999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C134" s="1">
+      <c r="C134" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>FePb</v>
+      </c>
+      <c r="D134" s="1">
         <v>-0.37820999999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C135" s="1">
+      <c r="C135" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>FeRh</v>
+      </c>
+      <c r="D135" s="1">
         <v>-3.6409999999999998E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C136" s="1">
+      <c r="C136" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>FeRu</v>
+      </c>
+      <c r="D136" s="1">
         <v>-2.1299999999999999E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C137" s="1">
+      <c r="C137" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>FeSb</v>
+      </c>
+      <c r="D137" s="1">
         <v>-0.24995999999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C138" s="1">
+      <c r="C138" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>FeSi</v>
+      </c>
+      <c r="D138" s="1">
         <v>-0.20244000000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C139" s="1">
+      <c r="C139" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>FeSn</v>
+      </c>
+      <c r="D139" s="1">
         <v>-0.29322999999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C140" s="1">
+      <c r="C140" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>FeTc</v>
+      </c>
+      <c r="D140" s="1">
         <v>-8.9149999999999993E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C141" s="1">
+      <c r="C141" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>FeTi</v>
+      </c>
+      <c r="D141" s="1">
         <v>-0.13961000000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C142" s="1">
+      <c r="C142" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>FeV</v>
+      </c>
+      <c r="D142" s="1">
         <v>-8.294E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C143" s="1">
+      <c r="C143" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>FeW</v>
+      </c>
+      <c r="D143" s="1">
         <v>-9.672E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C144" s="1">
+      <c r="C144" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>FeZn</v>
+      </c>
+      <c r="D144" s="1">
         <v>-0.15948000000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C145" s="1">
+      <c r="C145" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>FeCu</v>
+      </c>
+      <c r="D145" s="1">
         <v>-0.19797999999999999</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C146" s="1">
+      <c r="C146" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>FeMn</v>
+      </c>
+      <c r="D146" s="1">
         <v>-0.16716</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C147" s="1">
+      <c r="C147" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>FeAg</v>
+      </c>
+      <c r="D147" s="1">
         <v>-0.27611999999999998</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C148" s="1">
+      <c r="C148" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>FeAu</v>
+      </c>
+      <c r="D148" s="1">
         <v>-0.25087999999999999</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C149" s="1">
+      <c r="C149" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>FeCd</v>
+      </c>
+      <c r="D149" s="1">
         <v>-0.32908999999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C150" s="1">
+      <c r="C150" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>FeHf</v>
+      </c>
+      <c r="D150" s="1">
         <v>-0.27526</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C151" s="1">
+      <c r="C151" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>FeHg</v>
+      </c>
+      <c r="D151" s="1">
         <v>-0.34561999999999998</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C152" s="1">
+      <c r="C152" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>FeIn</v>
+      </c>
+      <c r="D152" s="1">
         <v>-0.32382</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C153" s="1">
+      <c r="C153" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>FeOs</v>
+      </c>
+      <c r="D153" s="1">
         <v>0.12598000000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C154" s="1">
+      <c r="C154" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>FePd</v>
+      </c>
+      <c r="D154" s="1">
         <v>-0.14446999999999999</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C155" s="1">
+      <c r="C155" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>FePt</v>
+      </c>
+      <c r="D155" s="1">
         <v>-3.0200000000000001E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C156" s="1">
+      <c r="C156" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>FeSc</v>
+      </c>
+      <c r="D156" s="1">
         <v>-0.28547</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C157" s="1">
+      <c r="C157" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>FeTa</v>
+      </c>
+      <c r="D157" s="1">
         <v>-0.19922000000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C158" s="1">
+      <c r="C158" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>FeTl</v>
+      </c>
+      <c r="D158" s="1">
         <v>-0.37170999999999998</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C159" s="1">
+      <c r="C159" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>FeZr</v>
+      </c>
+      <c r="D159" s="1">
         <v>-0.30510999999999999</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C160" s="1">
+      <c r="C160" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>FeRe</v>
+      </c>
+      <c r="D160" s="1">
         <v>6.7769999999999997E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C161" s="1">
+      <c r="C161" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>IrIr</v>
+      </c>
+      <c r="D161" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C162" s="1">
+      <c r="C162" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>IrAg</v>
+      </c>
+      <c r="D162" s="1">
         <v>-9.7799999999999998E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C163" s="1">
+      <c r="C163" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>IrCd</v>
+      </c>
+      <c r="D163" s="1">
         <v>-0.12576999999999999</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C164" s="1">
+      <c r="C164" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>IrMo</v>
+      </c>
+      <c r="D164" s="1">
         <v>0.38847999999999999</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C165" s="1">
+      <c r="C165" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>IrNb</v>
+      </c>
+      <c r="D165" s="1">
         <v>0.16369</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C166" s="1">
+      <c r="C166" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>IrPd</v>
+      </c>
+      <c r="D166" s="1">
         <v>-7.6700000000000004E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C167" s="1">
+      <c r="C167" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>IrRh</v>
+      </c>
+      <c r="D167" s="1">
         <v>-7.1010000000000004E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C168" s="1">
+      <c r="C168" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>IrRu</v>
+      </c>
+      <c r="D168" s="1">
         <v>0.19400000000000001</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C169" s="1">
+      <c r="C169" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>IrTc</v>
+      </c>
+      <c r="D169" s="1">
         <v>0.51985999999999999</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C170" s="1">
+      <c r="C170" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>IrY</v>
+      </c>
+      <c r="D170" s="1">
         <v>-0.24057999999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C171" s="1">
+      <c r="C171" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>IrZr</v>
+      </c>
+      <c r="D171" s="1">
         <v>2.0969999999999999E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C172" s="1">
+      <c r="C172" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>MgMg</v>
+      </c>
+      <c r="D172" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C173" s="1">
+      <c r="C173" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>MgAg</v>
+      </c>
+      <c r="D173" s="1">
         <v>5.4030000000000002E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C174" s="1">
+      <c r="C174" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>MgAl</v>
+      </c>
+      <c r="D174" s="1">
         <v>6.5060000000000007E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C175" s="1">
+      <c r="C175" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>MgAu</v>
+      </c>
+      <c r="D175" s="1">
         <v>0.12695000000000001</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C176" s="1">
+      <c r="C176" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>MgBe</v>
+      </c>
+      <c r="D176" s="1">
         <v>-2.1649999999999999E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C177" s="1">
+      <c r="C177" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>MgBi</v>
+      </c>
+      <c r="D177" s="1">
         <v>-0.16849</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C178" s="1">
+      <c r="C178" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>MgCa</v>
+      </c>
+      <c r="D178" s="1">
         <v>-0.18540999999999999</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C179" s="1">
+      <c r="C179" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>MgCd</v>
+      </c>
+      <c r="D179" s="1">
         <v>-9.2920000000000003E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C180" s="1">
+      <c r="C180" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>MgCe</v>
+      </c>
+      <c r="D180" s="1">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C181" s="1">
+      <c r="C181" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>MgCo</v>
+      </c>
+      <c r="D181" s="1">
         <v>0.57203000000000004</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C182" s="1">
+      <c r="C182" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>MgCr</v>
+      </c>
+      <c r="D182" s="1">
         <v>0.34033000000000002</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C183" s="1">
+      <c r="C183" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>MgCu</v>
+      </c>
+      <c r="D183" s="1">
         <v>7.7009999999999995E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C184" s="1">
+      <c r="C184" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>MgFe</v>
+      </c>
+      <c r="D184" s="1">
         <v>0.47405999999999998</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C185" s="1">
+      <c r="C185" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>MgGa</v>
+      </c>
+      <c r="D185" s="1">
         <v>-5.7790000000000001E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C186" s="1">
+      <c r="C186" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>MgGd</v>
+      </c>
+      <c r="D186" s="1">
         <v>-9.4289999999999999E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C187" s="1">
+      <c r="C187" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>MgHf</v>
+      </c>
+      <c r="D187" s="1">
         <v>0.63541999999999998</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C188" s="1">
+      <c r="C188" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>MgHg</v>
+      </c>
+      <c r="D188" s="1">
         <v>-0.15246000000000001</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C189" s="1">
+      <c r="C189" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>MgIn</v>
+      </c>
+      <c r="D189" s="1">
         <v>-9.0440000000000006E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C190" s="1">
+      <c r="C190" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>MgIr</v>
+      </c>
+      <c r="D190" s="1">
         <v>0.86102999999999996</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C191" s="1">
+      <c r="C191" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>MgK</v>
+      </c>
+      <c r="D191" s="1">
         <v>-0.32939000000000002</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C192" s="1">
+      <c r="C192" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>MgLa</v>
+      </c>
+      <c r="D192" s="1">
         <v>-0.22764000000000001</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C193" s="1">
+      <c r="C193" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>MgLi</v>
+      </c>
+      <c r="D193" s="1">
         <v>-7.4029999999999999E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C194" s="1">
+      <c r="C194" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>MgMn</v>
+      </c>
+      <c r="D194" s="1">
         <v>0.28939999999999999</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C195" s="1">
+      <c r="C195" s="1" t="str">
+        <f t="shared" ref="C195:C258" si="3">CONCATENATE(A195,B195)</f>
+        <v>MgMo</v>
+      </c>
+      <c r="D195" s="1">
         <v>1.2683800000000001</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C196" s="1">
+      <c r="C196" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MgNa</v>
+      </c>
+      <c r="D196" s="1">
         <v>-0.14435000000000001</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C197" s="1">
+      <c r="C197" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MgNb</v>
+      </c>
+      <c r="D197" s="1">
         <v>1.0463499999999999</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C198" s="1">
+      <c r="C198" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MgNd</v>
+      </c>
+      <c r="D198" s="1">
         <v>-0.16883000000000001</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C199" s="1">
+      <c r="C199" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MgNi</v>
+      </c>
+      <c r="D199" s="1">
         <v>0.36626999999999998</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C200" s="1">
+      <c r="C200" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MgOs</v>
+      </c>
+      <c r="D200" s="1">
         <v>1.1529199999999999</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C201" s="1">
+      <c r="C201" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MgPd</v>
+      </c>
+      <c r="D201" s="1">
         <v>0.36232999999999999</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C202" s="1">
+      <c r="C202" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MgPr</v>
+      </c>
+      <c r="D202" s="1">
         <v>-0.18751999999999999</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C203" s="1">
+      <c r="C203" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MgPt</v>
+      </c>
+      <c r="D203" s="1">
         <v>0.46579999999999999</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C204" s="1">
+      <c r="C204" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MgRe</v>
+      </c>
+      <c r="D204" s="1">
         <v>1.38375</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C205" s="1">
+      <c r="C205" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MgRh</v>
+      </c>
+      <c r="D205" s="1">
         <v>0.72089999999999999</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C206" s="1">
+      <c r="C206" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MgRu</v>
+      </c>
+      <c r="D206" s="1">
         <v>1.03511</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C207" s="1">
+      <c r="C207" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MgSb</v>
+      </c>
+      <c r="D207" s="1">
         <v>-0.13667000000000001</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C208" s="1">
+      <c r="C208" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MgSc</v>
+      </c>
+      <c r="D208" s="1">
         <v>0.20630000000000001</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C209" s="1">
+      <c r="C209" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MgSe</v>
+      </c>
+      <c r="D209" s="1">
         <v>-0.30686999999999998</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C210" s="1">
+      <c r="C210" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MgSi</v>
+      </c>
+      <c r="D210" s="1">
         <v>2.8219999999999999E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C211" s="1">
+      <c r="C211" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MgSn</v>
+      </c>
+      <c r="D211" s="1">
         <v>-4.3299999999999998E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C212" s="1">
+      <c r="C212" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MgSr</v>
+      </c>
+      <c r="D212" s="1">
         <v>-0.32382</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C213" s="1">
+      <c r="C213" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MgTa</v>
+      </c>
+      <c r="D213" s="1">
         <v>1.1312800000000001</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C214" s="1">
+      <c r="C214" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MgTc</v>
+      </c>
+      <c r="D214" s="1">
         <v>1.24556</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C215" s="1">
+      <c r="C215" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MgTh</v>
+      </c>
+      <c r="D215" s="1">
         <v>-0.13969999999999999</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C216" s="1">
+      <c r="C216" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MgTi</v>
+      </c>
+      <c r="D216" s="1">
         <v>0.61614000000000002</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C217" s="1">
+      <c r="C217" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MgV</v>
+      </c>
+      <c r="D217" s="1">
         <v>0.85138999999999998</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C218" s="1">
+      <c r="C218" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MgW</v>
+      </c>
+      <c r="D218" s="1">
         <v>1.4239200000000001</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C219" s="1">
+      <c r="C219" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MgY</v>
+      </c>
+      <c r="D219" s="1">
         <v>-5.6500000000000002E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C220" s="1">
+      <c r="C220" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MgZn</v>
+      </c>
+      <c r="D220" s="1">
         <v>-0.10138999999999999</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C221" s="1">
+      <c r="C221" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MgZr</v>
+      </c>
+      <c r="D221" s="1">
         <v>0.58030999999999999</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C222" s="1">
+      <c r="C222" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MoMo</v>
+      </c>
+      <c r="D222" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C223" s="1">
+      <c r="C223" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MoAg</v>
+      </c>
+      <c r="D223" s="1">
         <v>-0.33889999999999998</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C224" s="1">
+      <c r="C224" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MoBi</v>
+      </c>
+      <c r="D224" s="1">
         <v>-0.25014999999999998</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C225" s="1">
+      <c r="C225" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MoCd</v>
+      </c>
+      <c r="D225" s="1">
         <v>-0.29796</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C226" s="1">
+      <c r="C226" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MoCo</v>
+      </c>
+      <c r="D226" s="1">
         <v>-0.43262</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C227" s="1">
+      <c r="C227" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MoCr</v>
+      </c>
+      <c r="D227" s="1">
         <v>3.9710000000000002E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C228" s="1">
+      <c r="C228" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MoCu</v>
+      </c>
+      <c r="D228" s="1">
         <v>-0.16294</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C229" s="1">
+      <c r="C229" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MoFe</v>
+      </c>
+      <c r="D229" s="1">
         <v>-0.41841</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C230" s="1">
+      <c r="C230" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MoGa</v>
+      </c>
+      <c r="D230" s="1">
         <v>-6.4320000000000002E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C231" s="1">
+      <c r="C231" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MoIn</v>
+      </c>
+      <c r="D231" s="1">
         <v>-0.18684000000000001</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C232" s="1">
+      <c r="C232" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MoMg</v>
+      </c>
+      <c r="D232" s="1">
         <v>-7.2139999999999996E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C233" s="1">
+      <c r="C233" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MoMn</v>
+      </c>
+      <c r="D233" s="1">
         <v>-0.21671000000000001</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C234" s="1">
+      <c r="C234" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MoNi</v>
+      </c>
+      <c r="D234" s="1">
         <v>-0.3256</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C235" s="1">
+      <c r="C235" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MoPd</v>
+      </c>
+      <c r="D235" s="1">
         <v>-0.38321</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C236" s="1">
+      <c r="C236" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MoTc</v>
+      </c>
+      <c r="D236" s="1">
         <v>-0.16792000000000001</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C237" s="1">
+      <c r="C237" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MoW</v>
+      </c>
+      <c r="D237" s="1">
         <v>0.22933000000000001</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C238" s="1">
+      <c r="C238" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MoY</v>
+      </c>
+      <c r="D238" s="1">
         <v>-0.17599000000000001</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C239" s="1">
+      <c r="C239" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MoZn</v>
+      </c>
+      <c r="D239" s="1">
         <v>-7.4969999999999995E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C240" s="1">
+      <c r="C240" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MoAs</v>
+      </c>
+      <c r="D240" s="1">
         <v>-0.17707000000000001</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C241" s="1">
+      <c r="C241" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MoGe</v>
+      </c>
+      <c r="D241" s="1">
         <v>-3.0329999999999999E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C242" s="1">
+      <c r="C242" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MoOs</v>
+      </c>
+      <c r="D242" s="1">
         <v>-0.27855999999999997</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C243" s="1">
+      <c r="C243" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MoP</v>
+      </c>
+      <c r="D243" s="1">
         <v>-0.25525999999999999</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C244" s="1">
+      <c r="C244" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MoPb</v>
+      </c>
+      <c r="D244" s="1">
         <v>-0.27243000000000001</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C245" s="1">
+      <c r="C245" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MoPt</v>
+      </c>
+      <c r="D245" s="1">
         <v>-0.52073000000000003</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C246" s="1">
+      <c r="C246" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MoRu</v>
+      </c>
+      <c r="D246" s="1">
         <v>-0.41775000000000001</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C247" s="1">
+      <c r="C247" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MoSb</v>
+      </c>
+      <c r="D247" s="1">
         <v>-0.13200000000000001</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C248" s="1">
+      <c r="C248" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MoSc</v>
+      </c>
+      <c r="D248" s="1">
         <v>-3.891E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C249" s="1">
+      <c r="C249" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MoSi</v>
+      </c>
+      <c r="D249" s="1">
         <v>-9.9830000000000002E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C250" s="1">
+      <c r="C250" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MoSn</v>
+      </c>
+      <c r="D250" s="1">
         <v>-0.13578999999999999</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C251" s="1">
+      <c r="C251" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MoTi</v>
+      </c>
+      <c r="D251" s="1">
         <v>1.575E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C252" s="1">
+      <c r="C252" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MoTl</v>
+      </c>
+      <c r="D252" s="1">
         <v>-0.31302999999999997</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C253" s="1">
+      <c r="C253" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MoZr</v>
+      </c>
+      <c r="D253" s="1">
         <v>-6.9279999999999994E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C254" s="1">
+      <c r="C254" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>NiNi</v>
+      </c>
+      <c r="D254" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C255" s="1">
+      <c r="C255" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>NiAg</v>
+      </c>
+      <c r="D255" s="1">
         <v>-0.18887000000000001</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C256" s="1">
+      <c r="C256" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>NiAl</v>
+      </c>
+      <c r="D256" s="1">
         <v>-1.661E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C257" s="1">
+      <c r="C257" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>NiAu</v>
+      </c>
+      <c r="D257" s="1">
         <v>-0.24525</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C258" s="1">
+      <c r="C258" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>NiBi</v>
+      </c>
+      <c r="D258" s="1">
         <v>-0.53151999999999999</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C259" s="1">
+      <c r="C259" s="1" t="str">
+        <f t="shared" ref="C259:C322" si="4">CONCATENATE(A259,B259)</f>
+        <v>NiCd</v>
+      </c>
+      <c r="D259" s="1">
         <v>-0.25802000000000003</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C260" s="1">
+      <c r="C260" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NiCo</v>
+      </c>
+      <c r="D260" s="1">
         <v>0.11524</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C261" s="1">
+      <c r="C261" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NiCr</v>
+      </c>
+      <c r="D261" s="1">
         <v>-2.9860000000000001E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C262" s="1">
+      <c r="C262" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NiCu</v>
+      </c>
+      <c r="D262" s="1">
         <v>-6.8580000000000002E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C263" s="1">
+      <c r="C263" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NiFe</v>
+      </c>
+      <c r="D263" s="1">
         <v>-1.5779999999999999E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C264" s="1">
+      <c r="C264" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NiGa</v>
+      </c>
+      <c r="D264" s="1">
         <v>-7.4579999999999994E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C265" s="1">
+      <c r="C265" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NiGe</v>
+      </c>
+      <c r="D265" s="1">
         <v>-0.15619</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C266" s="1">
+      <c r="C266" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NiHf</v>
+      </c>
+      <c r="D266" s="1">
         <v>-0.21084</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C267" s="1">
+      <c r="C267" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NiHg</v>
+      </c>
+      <c r="D267" s="1">
         <v>-0.31358000000000003</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C268" s="1">
+      <c r="C268" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NiIn</v>
+      </c>
+      <c r="D268" s="1">
         <v>-0.25041999999999998</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C269" s="1">
+      <c r="C269" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NiIr</v>
+      </c>
+      <c r="D269" s="1">
         <v>0.50260000000000005</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C270" s="1">
+      <c r="C270" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NiMg</v>
+      </c>
+      <c r="D270" s="1">
         <v>-0.10457</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C271" s="1">
+      <c r="C271" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NiMn</v>
+      </c>
+      <c r="D271" s="1">
         <v>-1.542E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C272" s="1">
+      <c r="C272" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NiMo</v>
+      </c>
+      <c r="D272" s="1">
         <v>3.5110000000000002E-2</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C273" s="1">
+      <c r="C273" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NiNb</v>
+      </c>
+      <c r="D273" s="1">
         <v>-8.8179999999999994E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C274" s="1">
+      <c r="C274" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NiOs</v>
+      </c>
+      <c r="D274" s="1">
         <v>0.58530000000000004</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C275" s="1">
+      <c r="C275" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NiPb</v>
+      </c>
+      <c r="D275" s="1">
         <v>-0.43286000000000002</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C276" s="1">
+      <c r="C276" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NiPd</v>
+      </c>
+      <c r="D276" s="1">
         <v>-0.13836999999999999</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C277" s="1">
+      <c r="C277" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NiPt</v>
+      </c>
+      <c r="D277" s="1">
         <v>0.10964</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C278" s="1">
+      <c r="C278" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NiRe</v>
+      </c>
+      <c r="D278" s="1">
         <v>0.50673999999999997</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C279" s="1">
+      <c r="C279" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NiRh</v>
+      </c>
+      <c r="D279" s="1">
         <v>0.19900000000000001</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C280" s="1">
+      <c r="C280" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NiRu</v>
+      </c>
+      <c r="D280" s="1">
         <v>0.25453999999999999</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C281" s="1">
+      <c r="C281" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NiS</v>
+      </c>
+      <c r="D281" s="1">
         <v>-0.79501999999999995</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C282" s="1">
+      <c r="C282" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NiSb</v>
+      </c>
+      <c r="D282" s="1">
         <v>-0.27711000000000002</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C283" s="1">
+      <c r="C283" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NiSc</v>
+      </c>
+      <c r="D283" s="1">
         <v>-0.25420999999999999</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C284" s="1">
+      <c r="C284" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NiSi</v>
+      </c>
+      <c r="D284" s="1">
         <v>-0.24268000000000001</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C285" s="1">
+      <c r="C285" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NiSn</v>
+      </c>
+      <c r="D285" s="1">
         <v>-0.24553</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C286" s="1">
+      <c r="C286" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NiTa</v>
+      </c>
+      <c r="D286" s="1">
         <v>-9.6100000000000005E-2</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C287" s="1">
+      <c r="C287" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NiTc</v>
+      </c>
+      <c r="D287" s="1">
         <v>0.18748000000000001</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C288" s="1">
+      <c r="C288" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NiTi</v>
+      </c>
+      <c r="D288" s="1">
         <v>-3.4970000000000001E-2</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C289" s="1">
+      <c r="C289" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NiTl</v>
+      </c>
+      <c r="D289" s="1">
         <v>-0.38005</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C290" s="1">
+      <c r="C290" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NiV</v>
+      </c>
+      <c r="D290" s="1">
         <v>-3.0699999999999998E-3</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C291" s="1">
+      <c r="C291" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NiW</v>
+      </c>
+      <c r="D291" s="1">
         <v>0.24398</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C292" s="1">
+      <c r="C292" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NiZn</v>
+      </c>
+      <c r="D292" s="1">
         <v>-5.6680000000000001E-2</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C293" s="1">
+      <c r="C293" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NiZr</v>
+      </c>
+      <c r="D293" s="1">
         <v>-0.30564999999999998</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C294" s="1">
+      <c r="C294" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>PbPb</v>
+      </c>
+      <c r="D294" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C295" s="1">
+      <c r="C295" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>PbAg</v>
+      </c>
+      <c r="D295" s="1">
         <v>-0.26199</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C296" s="1">
+      <c r="C296" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>PbCd</v>
+      </c>
+      <c r="D296" s="1">
         <v>-0.13192000000000001</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C297" s="1">
+      <c r="C297" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>PbMo</v>
+      </c>
+      <c r="D297" s="1">
         <v>0.53639999999999999</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C298" s="1">
+      <c r="C298" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>PbNb</v>
+      </c>
+      <c r="D298" s="1">
         <v>0.59150000000000003</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C299" s="1">
+      <c r="C299" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>PbPd</v>
+      </c>
+      <c r="D299" s="1">
         <v>-0.20521</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C300" s="1">
+      <c r="C300" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>PbY</v>
+      </c>
+      <c r="D300" s="1">
         <v>0.20791999999999999</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C301" s="1">
+      <c r="C301" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>PbZr</v>
+      </c>
+      <c r="D301" s="1">
         <v>0.50980000000000003</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C302" s="1">
+      <c r="C302" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>PdPd</v>
+      </c>
+      <c r="D302" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C303" s="1">
+      <c r="C303" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>PdAg</v>
+      </c>
+      <c r="D303" s="1">
         <v>-0.10974</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C304" s="1">
+      <c r="C304" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>PdAu</v>
+      </c>
+      <c r="D304" s="1">
         <v>-0.11745</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C305" s="1">
+      <c r="C305" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>PdCd</v>
+      </c>
+      <c r="D305" s="1">
         <v>-0.16825999999999999</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C306" s="1">
+      <c r="C306" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>PdCo</v>
+      </c>
+      <c r="D306" s="1">
         <v>-1.83E-3</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C307" s="1">
+      <c r="C307" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>PdCr</v>
+      </c>
+      <c r="D307" s="1">
         <v>0.49451000000000001</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C308" s="1">
+      <c r="C308" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>PdCu</v>
+      </c>
+      <c r="D308" s="1">
         <v>-0.11032</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C309" s="1">
+      <c r="C309" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>PdFe</v>
+      </c>
+      <c r="D309" s="1">
         <v>0.17347000000000001</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C310" s="1">
+      <c r="C310" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>PdHf</v>
+      </c>
+      <c r="D310" s="1">
         <v>0.24060999999999999</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C311" s="1">
+      <c r="C311" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>PdHg</v>
+      </c>
+      <c r="D311" s="1">
         <v>-0.2697</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C312" s="1">
+      <c r="C312" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>PdIr</v>
+      </c>
+      <c r="D312" s="1">
         <v>0.54273000000000005</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C313" s="1">
+      <c r="C313" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>PdLa</v>
+      </c>
+      <c r="D313" s="1">
         <v>-0.93933</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C314" s="1">
+      <c r="C314" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>PdMn</v>
+      </c>
+      <c r="D314" s="1">
         <v>0.34327000000000002</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C315" s="1">
+      <c r="C315" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>PdMo</v>
+      </c>
+      <c r="D315" s="1">
         <v>1.0210300000000001</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C316" s="1">
+      <c r="C316" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>PdNb</v>
+      </c>
+      <c r="D316" s="1">
         <v>0.69443999999999995</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C317" s="1">
+      <c r="C317" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>PdNi</v>
+      </c>
+      <c r="D317" s="1">
         <v>-0.13289000000000001</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C318" s="1">
+      <c r="C318" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>PdOs</v>
+      </c>
+      <c r="D318" s="1">
         <v>0.94698000000000004</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C319" s="1">
+      <c r="C319" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>PdPt</v>
+      </c>
+      <c r="D319" s="1">
         <v>0.16814000000000001</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C320" s="1">
+      <c r="C320" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>PdRe</v>
+      </c>
+      <c r="D320" s="1">
         <v>1.26257</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C321" s="1">
+      <c r="C321" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>PdRh</v>
+      </c>
+      <c r="D321" s="1">
         <v>0.26591999999999999</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C322" s="1">
+      <c r="C322" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>PdRu</v>
+      </c>
+      <c r="D322" s="1">
         <v>0.60024</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C323" s="1">
+      <c r="C323" s="1" t="str">
+        <f t="shared" ref="C323:C386" si="5">CONCATENATE(A323,B323)</f>
+        <v>PdSc</v>
+      </c>
+      <c r="D323" s="1">
         <v>1.7819999999999999E-2</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C324" s="1">
+      <c r="C324" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>PdTa</v>
+      </c>
+      <c r="D324" s="1">
         <v>0.82320000000000004</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C325" s="1">
+      <c r="C325" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>PdTc</v>
+      </c>
+      <c r="D325" s="1">
         <v>0.92398999999999998</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B326" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C326" s="1">
+      <c r="C326" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>PdTi</v>
+      </c>
+      <c r="D326" s="1">
         <v>0.1797</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C327" s="1">
+      <c r="C327" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>PdV</v>
+      </c>
+      <c r="D327" s="1">
         <v>0.48415000000000002</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B328" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C328" s="1">
+      <c r="C328" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>PdW</v>
+      </c>
+      <c r="D328" s="1">
         <v>1.23976</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B329" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C329" s="1">
+      <c r="C329" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>PdY</v>
+      </c>
+      <c r="D329" s="1">
         <v>-0.32477</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B330" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C330" s="1">
+      <c r="C330" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>PdZn</v>
+      </c>
+      <c r="D330" s="1">
         <v>-0.11153</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C331" s="1">
+      <c r="C331" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>PdZr</v>
+      </c>
+      <c r="D331" s="1">
         <v>0.10824</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C332" s="1">
+      <c r="C332" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>PtPt</v>
+      </c>
+      <c r="D332" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C333" s="1">
+      <c r="C333" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>PtAg</v>
+      </c>
+      <c r="D333" s="1">
         <v>2.8479999999999998E-2</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C334" s="1">
+      <c r="C334" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>PtAu</v>
+      </c>
+      <c r="D334" s="1">
         <v>-8.4500000000000006E-2</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C335" s="1">
+      <c r="C335" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>PtCd</v>
+      </c>
+      <c r="D335" s="1">
         <v>-7.7590000000000006E-2</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C336" s="1">
+      <c r="C336" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>PtCo</v>
+      </c>
+      <c r="D336" s="1">
         <v>-0.11819</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B337" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C337" s="1">
+      <c r="C337" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>PtCr</v>
+      </c>
+      <c r="D337" s="1">
         <v>0.60180999999999996</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B338" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C338" s="1">
+      <c r="C338" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>PtCu</v>
+      </c>
+      <c r="D338" s="1">
         <v>0.10523</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B339" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C339" s="1">
+      <c r="C339" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>PtFe</v>
+      </c>
+      <c r="D339" s="1">
         <v>0.11762</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C340" s="1">
+      <c r="C340" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>PtHf</v>
+      </c>
+      <c r="D340" s="1">
         <v>0.42260999999999999</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B341" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C341" s="1">
+      <c r="C341" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>PtHg</v>
+      </c>
+      <c r="D341" s="1">
         <v>-0.22642999999999999</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B342" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C342" s="1">
+      <c r="C342" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>PtIr</v>
+      </c>
+      <c r="D342" s="1">
         <v>0.45628000000000002</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B343" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C343" s="1">
+      <c r="C343" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>PtLa</v>
+      </c>
+      <c r="D343" s="1">
         <v>-0.59931000000000001</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B344" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C344" s="1">
+      <c r="C344" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>PtMn</v>
+      </c>
+      <c r="D344" s="1">
         <v>0.36775000000000002</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B345" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C345" s="1">
+      <c r="C345" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>PtMo</v>
+      </c>
+      <c r="D345" s="1">
         <v>1.2917099999999999</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B346" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C346" s="1">
+      <c r="C346" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>PtNb</v>
+      </c>
+      <c r="D346" s="1">
         <v>0.96631999999999996</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B347" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C347" s="1">
+      <c r="C347" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>PtNi</v>
+      </c>
+      <c r="D347" s="1">
         <v>-0.11616</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B348" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C348" s="1">
+      <c r="C348" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>PtOs</v>
+      </c>
+      <c r="D348" s="1">
         <v>0.97816999999999998</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B349" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C349" s="1">
+      <c r="C349" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>PtPd</v>
+      </c>
+      <c r="D349" s="1">
         <v>3.61E-2</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B350" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C350" s="1">
+      <c r="C350" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>PtRe</v>
+      </c>
+      <c r="D350" s="1">
         <v>1.43625</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B351" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C351" s="1">
+      <c r="C351" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>PtRh</v>
+      </c>
+      <c r="D351" s="1">
         <v>0.21601999999999999</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B352" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C352" s="1">
+      <c r="C352" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>PtRu</v>
+      </c>
+      <c r="D352" s="1">
         <v>0.64922000000000002</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C353" s="1">
+      <c r="C353" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>PtSc</v>
+      </c>
+      <c r="D353" s="1">
         <v>0.17479</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B354" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C354" s="1">
+      <c r="C354" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>PtTa</v>
+      </c>
+      <c r="D354" s="1">
         <v>1.07325</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C355" s="1">
+      <c r="C355" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>PtTc</v>
+      </c>
+      <c r="D355" s="1">
         <v>1.10622</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B356" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C356" s="1">
+      <c r="C356" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>PtTi</v>
+      </c>
+      <c r="D356" s="1">
         <v>0.37967000000000001</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B357" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C357" s="1">
+      <c r="C357" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>PtV</v>
+      </c>
+      <c r="D357" s="1">
         <v>0.66032999999999997</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B358" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C358" s="1">
+      <c r="C358" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>PtW</v>
+      </c>
+      <c r="D358" s="1">
         <v>1.4951300000000001</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B359" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C359" s="1">
+      <c r="C359" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>PtY</v>
+      </c>
+      <c r="D359" s="1">
         <v>-0.35815000000000002</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B360" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C360" s="1">
+      <c r="C360" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>PtZn</v>
+      </c>
+      <c r="D360" s="1">
         <v>0.12776000000000001</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B361" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C361" s="1">
+      <c r="C361" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>PtZr</v>
+      </c>
+      <c r="D361" s="1">
         <v>0.26418000000000003</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B362" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C362" s="1">
+      <c r="C362" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>WW</v>
+      </c>
+      <c r="D362" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B363" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C363" s="1">
+      <c r="C363" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>WAg</v>
+      </c>
+      <c r="D363" s="1">
         <v>-0.43403999999999998</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B364" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C364" s="1">
+      <c r="C364" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>WAl</v>
+      </c>
+      <c r="D364" s="1">
         <v>2.0899999999999998E-2</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B365" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C365" s="1">
+      <c r="C365" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>WAs</v>
+      </c>
+      <c r="D365" s="1">
         <v>-0.22692999999999999</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B366" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C366" s="1">
+      <c r="C366" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>WAu</v>
+      </c>
+      <c r="D366" s="1">
         <v>-0.66405999999999998</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C367" s="1">
+      <c r="C367" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>WCa</v>
+      </c>
+      <c r="D367" s="1">
         <v>-0.28173999999999999</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B368" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C368" s="1">
+      <c r="C368" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>WCd</v>
+      </c>
+      <c r="D368" s="1">
         <v>-0.32529999999999998</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B369" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C369" s="1">
+      <c r="C369" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>WCo</v>
+      </c>
+      <c r="D369" s="1">
         <v>-0.50683999999999996</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B370" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C370" s="1">
+      <c r="C370" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>WCr</v>
+      </c>
+      <c r="D370" s="1">
         <v>-0.14924999999999999</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B371" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C371" s="1">
+      <c r="C371" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>WCu</v>
+      </c>
+      <c r="D371" s="1">
         <v>-0.18415999999999999</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B372" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C372" s="1">
+      <c r="C372" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>WFe</v>
+      </c>
+      <c r="D372" s="1">
         <v>-0.74317999999999995</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B373" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C373" s="1">
+      <c r="C373" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>WGa</v>
+      </c>
+      <c r="D373" s="1">
         <v>-5.6210000000000003E-2</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B374" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C374" s="1">
+      <c r="C374" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>WGe</v>
+      </c>
+      <c r="D374" s="1">
         <v>-0.12059</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B375" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C375" s="1">
+      <c r="C375" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>WHf</v>
+      </c>
+      <c r="D375" s="1">
         <v>-4.3400000000000001E-2</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B376" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C376" s="1">
+      <c r="C376" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>WHg</v>
+      </c>
+      <c r="D376" s="1">
         <v>-0.49007000000000001</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B377" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C377" s="1">
+      <c r="C377" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>WIn</v>
+      </c>
+      <c r="D377" s="1">
         <v>-0.22474</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B378" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C378" s="1">
+      <c r="C378" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>WMg</v>
+      </c>
+      <c r="D378" s="1">
         <v>-8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B379" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C379" s="1">
+      <c r="C379" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>WMn</v>
+      </c>
+      <c r="D379" s="1">
         <v>-0.37681999999999999</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B380" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C380" s="1">
+      <c r="C380" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>WMo</v>
+      </c>
+      <c r="D380" s="1">
         <v>-0.11694</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B381" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C381" s="1">
+      <c r="C381" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>WNi</v>
+      </c>
+      <c r="D381" s="1">
         <v>-0.37630999999999998</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B382" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C382" s="1">
+      <c r="C382" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>WP</v>
+      </c>
+      <c r="D382" s="1">
         <v>-0.30897999999999998</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B383" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C383" s="1">
+      <c r="C383" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>WPd</v>
+      </c>
+      <c r="D383" s="1">
         <v>-0.55581999999999998</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B384" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C384" s="1">
+      <c r="C384" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>WPt</v>
+      </c>
+      <c r="D384" s="1">
         <v>-0.76507999999999998</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B385" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C385" s="1">
+      <c r="C385" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>WRh</v>
+      </c>
+      <c r="D385" s="1">
         <v>-0.62</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B386" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C386" s="1">
+      <c r="C386" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>WRu</v>
+      </c>
+      <c r="D386" s="1">
         <v>-0.53649999999999998</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B387" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C387" s="1">
+      <c r="C387" s="1" t="str">
+        <f t="shared" ref="C387:C409" si="6">CONCATENATE(A387,B387)</f>
+        <v>WSc</v>
+      </c>
+      <c r="D387" s="1">
         <v>-2.988E-2</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B388" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C388" s="1">
+      <c r="C388" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>WSi</v>
+      </c>
+      <c r="D388" s="1">
         <v>-0.10383000000000001</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B389" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C389" s="1">
+      <c r="C389" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>WSr</v>
+      </c>
+      <c r="D389" s="1">
         <v>-0.50427</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B390" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C390" s="1">
+      <c r="C390" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>WTl</v>
+      </c>
+      <c r="D390" s="1">
         <v>-0.40473999999999999</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B391" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C391" s="1">
+      <c r="C391" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>WV</v>
+      </c>
+      <c r="D391" s="1">
         <v>2.281E-2</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B392" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C392" s="1">
+      <c r="C392" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>WY</v>
+      </c>
+      <c r="D392" s="1">
         <v>-0.23028999999999999</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B393" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C393" s="1">
+      <c r="C393" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>WZn</v>
+      </c>
+      <c r="D393" s="1">
         <v>-8.7910000000000002E-2</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B394" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C394" s="1">
+      <c r="C394" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>WZr</v>
+      </c>
+      <c r="D394" s="1">
         <v>-6.8379999999999996E-2</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B395" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C395" s="1">
+      <c r="C395" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>ZrZr</v>
+      </c>
+      <c r="D395" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B396" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C396" s="1">
+      <c r="C396" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>ZrCr</v>
+      </c>
+      <c r="D396" s="1">
         <v>-0.14469000000000001</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B397" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C397" s="1">
+      <c r="C397" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>ZrCu</v>
+      </c>
+      <c r="D397" s="1">
         <v>0.16682</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B398" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C398" s="1">
+      <c r="C398" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>ZrV</v>
+      </c>
+      <c r="D398" s="1">
         <v>0.16517000000000001</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B399" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C399" s="1">
+      <c r="C399" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>ZrZn</v>
+      </c>
+      <c r="D399" s="1">
         <v>0.20757</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B400" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C400" s="1">
+      <c r="C400" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>ZrMo</v>
+      </c>
+      <c r="D400" s="1">
         <v>-0.29321999999999998</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B401" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C401" s="1">
+      <c r="C401" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>ZrW</v>
+      </c>
+      <c r="D401" s="1">
         <v>-2.4539999999999999E-2</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B402" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C402" s="1">
+      <c r="C402" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>ZrAl</v>
+      </c>
+      <c r="D402" s="1">
         <v>0.49791999999999997</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B403" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C403" s="1">
+      <c r="C403" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>ZrAu</v>
+      </c>
+      <c r="D403" s="1">
         <v>0.13544999999999999</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B404" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C404" s="1">
+      <c r="C404" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>ZrAg</v>
+      </c>
+      <c r="D404" s="1">
         <v>0.12934999999999999</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B405" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C405" s="1">
+      <c r="C405" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>ZrNb</v>
+      </c>
+      <c r="D405" s="1">
         <v>-6.7019999999999996E-2</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B406" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C406" s="1">
+      <c r="C406" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>ZrTa</v>
+      </c>
+      <c r="D406" s="1">
         <v>0.15384999999999999</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B407" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C407" s="1">
+      <c r="C407" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>ZrTi</v>
+      </c>
+      <c r="D407" s="1">
         <v>0.24811</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B408" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C408" s="1">
+      <c r="C408" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>ZrHf</v>
+      </c>
+      <c r="D408" s="1">
         <v>0.20413999999999999</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B409" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C409" s="1">
+      <c r="C409" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>ZrSn</v>
+      </c>
+      <c r="D409" s="1">
         <v>0.24804000000000001</v>
       </c>
     </row>
